--- a/data/input/po_lists.xlsx
+++ b/data/input/po_lists.xlsx
@@ -27,107 +27,314 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>修改要货日期</t>
-  </si>
-  <si>
-    <t>week_num</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="228">
   <si>
     <t>PO-PO行-发运行号</t>
   </si>
   <si>
+    <t>发运行数量</t>
+  </si>
+  <si>
+    <t>SKU/Spart</t>
+  </si>
+  <si>
+    <t>要求交付日期</t>
+  </si>
+  <si>
+    <t>供应商可验货日期</t>
+  </si>
+  <si>
+    <t>PO2518SFSD010001-36-1</t>
+  </si>
+  <si>
+    <t>A1665HB1</t>
+  </si>
+  <si>
+    <t>PO2518SFSD010001-49-1</t>
+  </si>
+  <si>
+    <t>PO2519SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>A1665H21</t>
+  </si>
+  <si>
+    <t>PO2519SFSD010001-6-1</t>
+  </si>
+  <si>
+    <t>PO2525SFSD010001-28-1</t>
+  </si>
+  <si>
+    <t>A1665N61</t>
+  </si>
+  <si>
+    <t>PO2525SFSD010001-29-1</t>
+  </si>
+  <si>
+    <t>A1665NB1</t>
+  </si>
+  <si>
+    <t>PO2526SFSD010001-8-1</t>
+  </si>
+  <si>
+    <t>PO2527SFSD010001-9-1</t>
+  </si>
+  <si>
+    <t>PO2527SFSD010001-13-1</t>
+  </si>
+  <si>
+    <t>PO2528SFSD010001-29-1</t>
+  </si>
+  <si>
+    <t>A1665N21</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-14-1</t>
+  </si>
+  <si>
+    <t>A1665H11</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-19-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-20-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-21-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-22-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-23-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-24-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-28-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-29-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-35-1</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-36-1</t>
+  </si>
+  <si>
+    <t>PO2532SFSD010001-27-1</t>
+  </si>
+  <si>
+    <t>PO2532SFSD010001-28-1</t>
+  </si>
+  <si>
+    <t>PO2532SFSD010001-29-1</t>
+  </si>
+  <si>
+    <t>PO2532SFSD010001-30-1</t>
+  </si>
+  <si>
+    <t>PO2532SFSD010001-34-1</t>
+  </si>
+  <si>
+    <t>PO2532SFSD010001-35-1</t>
+  </si>
+  <si>
+    <t>PO2533SFSD010001-5-1</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-2-1</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-3-1</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-4-1</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-6-1</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-9-1</t>
+  </si>
+  <si>
+    <t>A1665N11</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-10-1</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-12-1</t>
+  </si>
+  <si>
+    <t>PO2535SFSD010001-2-1</t>
+  </si>
+  <si>
     <t>A16650B1</t>
   </si>
   <si>
-    <t>PO2525SFSD010001-24-1</t>
-  </si>
-  <si>
-    <t>PO2525SFSD010001-25-1</t>
-  </si>
-  <si>
-    <t>PO2525SFSD010001-35-1</t>
-  </si>
-  <si>
-    <t>PO2525SFSD010001-35-2</t>
-  </si>
-  <si>
-    <t>PO2525SFSD010001-36-1</t>
-  </si>
-  <si>
-    <t>PO2525SFSD010001-37-1</t>
-  </si>
-  <si>
-    <t>PO2527SFSD010001-2-1</t>
-  </si>
-  <si>
-    <t>PO2527SFSD010001-14-1</t>
-  </si>
-  <si>
-    <t>PO2527SFSD010001-14-2</t>
-  </si>
-  <si>
-    <t>PO2527SFSD010001-14-3</t>
-  </si>
-  <si>
-    <t>PO2527SFSD010001-14-4</t>
-  </si>
-  <si>
-    <t>PO2531SFSD010001-10-1</t>
-  </si>
-  <si>
-    <t>PO2531SFSD010001-11-1</t>
-  </si>
-  <si>
-    <t>PO2531SFSD010001-12-1</t>
-  </si>
-  <si>
-    <t>PO2531SFSD010001-13-1</t>
-  </si>
-  <si>
-    <t>PO2532SFSD010001-19-1</t>
-  </si>
-  <si>
-    <t>PO2532SFSD010001-20-1</t>
-  </si>
-  <si>
-    <t>PO2532SFSD010001-21-1</t>
-  </si>
-  <si>
-    <t>PO2532SFSD010001-22-1</t>
-  </si>
-  <si>
-    <t>PO2532SFSD010001-23-1</t>
-  </si>
-  <si>
-    <t>PO2532SFSD010001-24-1</t>
-  </si>
-  <si>
-    <t>PO2532SFSD010001-46-1</t>
-  </si>
-  <si>
-    <t>PO2532SFSD010001-47-1</t>
-  </si>
-  <si>
-    <t>PO2535SFSD010001-1-1</t>
-  </si>
-  <si>
-    <t>PO2535SFSD010001-2-1</t>
+    <t>PO2536SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2536SFSD010001-2-1</t>
+  </si>
+  <si>
+    <t>PO2536SFSD010001-3-1</t>
+  </si>
+  <si>
+    <t>PO2536SFSD010001-4-1</t>
+  </si>
+  <si>
+    <t>PO2536SFSD010001-7-1</t>
+  </si>
+  <si>
+    <t>PO2536SFSD010001-19-1</t>
+  </si>
+  <si>
+    <t>PO2536SFSD010001-20-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-2-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-3-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-4-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-11-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-12-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-14-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-16-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-18-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-21-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-22-1</t>
+  </si>
+  <si>
+    <t>PO2539SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2539SFSD010001-2-1</t>
+  </si>
+  <si>
+    <t>PO2539SFSD010001-3-1</t>
+  </si>
+  <si>
+    <t>PO2539SFSD010001-4-1</t>
+  </si>
+  <si>
+    <t>PO2539SFSD010001-8-1</t>
+  </si>
+  <si>
+    <t>PO2539SFSD010002-3-1</t>
+  </si>
+  <si>
+    <t>A1665H21-5</t>
+  </si>
+  <si>
+    <t>PO2540SFSD010001-7-1</t>
+  </si>
+  <si>
+    <t>A1665W21</t>
+  </si>
+  <si>
+    <t>PO2540SFSD010001-8-1</t>
+  </si>
+  <si>
+    <t>PO2540SFSD010001-9-1</t>
+  </si>
+  <si>
+    <t>A1665WB1</t>
+  </si>
+  <si>
+    <t>PO2540SFSD010001-10-1</t>
+  </si>
+  <si>
+    <t>PO2540SFSD010001-12-1</t>
+  </si>
+  <si>
+    <t>A1665W11</t>
+  </si>
+  <si>
+    <t>PO2540SFSD010001-13-1</t>
+  </si>
+  <si>
+    <t>PO2542SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-3-1</t>
+  </si>
+  <si>
+    <t>A1665021</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-5-1</t>
+  </si>
+  <si>
+    <t>A1665011</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-12-1</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-15-1</t>
   </si>
   <si>
     <t>PO2543SFSD010001-18-1</t>
   </si>
   <si>
+    <t>PO2543SFSD010001-22-1</t>
+  </si>
+  <si>
+    <t>A1665061</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-29-1</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-30-1</t>
+  </si>
+  <si>
     <t>PO2543SFSD010001-31-1</t>
   </si>
   <si>
+    <t>PO2539SFSD010001-6-2</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-11-1</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-16-1</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-17-1</t>
+  </si>
+  <si>
     <t>PO2545SFSD010001-9-1</t>
   </si>
   <si>
@@ -137,31 +344,387 @@
     <t>PO2545SFSD010001-11-1</t>
   </si>
   <si>
+    <t>PO2540SFSD010001-4-2</t>
+  </si>
+  <si>
+    <t>A1665H11-1</t>
+  </si>
+  <si>
+    <t>PO2546SFSD010001-4-1</t>
+  </si>
+  <si>
+    <t>PO2546SFSD010002-2-1</t>
+  </si>
+  <si>
+    <t>PO2546SFSD010003-1-1</t>
+  </si>
+  <si>
+    <t>PO2528SFSD010001-4-2</t>
+  </si>
+  <si>
+    <t>A1665H61</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-2-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-3-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-4-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-5-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-10-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-11-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-12-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-13-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-14-1</t>
+  </si>
+  <si>
     <t>PO2547SFSD010001-15-1</t>
   </si>
   <si>
+    <t>PO2547SFSD010001-16-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-17-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-18-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-19-1</t>
+  </si>
+  <si>
     <t>PO2547SFSD010001-20-1</t>
   </si>
   <si>
+    <t>PO2547SFSD010001-21-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-22-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-23-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-24-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-25-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-26-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-27-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-28-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-29-1</t>
+  </si>
+  <si>
+    <t>PO2547SFSD010001-30-1</t>
+  </si>
+  <si>
     <t>PO2547SFSD010001-31-1</t>
   </si>
   <si>
     <t>PO2547SFSD010001-32-1</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-9-2</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-9-3</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-9-4</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-12-2</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-17-2</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-15-2</t>
+  </si>
+  <si>
+    <t>PO2546SFSD010003-1-2</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-2-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-3-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-4-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-5-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-6-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-7-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-8-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-9-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-10-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-11-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-12-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-13-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-14-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-15-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-16-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-17-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-18-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-19-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-20-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-21-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-22-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-23-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-24-1</t>
+  </si>
+  <si>
+    <t>PO2548SFSD010001-25-1</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-18-2</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-18-3</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-18-4</t>
+  </si>
+  <si>
+    <t>PO2530SFSD010001-28-2</t>
+  </si>
+  <si>
+    <t>PO2526SFSD010001-8-2</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-16-2</t>
+  </si>
+  <si>
+    <t>PO2536SFSD010001-4-4</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-9-5</t>
+  </si>
+  <si>
+    <t>PO2544SFSD010001-9-6</t>
+  </si>
+  <si>
+    <t>PO2549SFSD010001-1-1</t>
+  </si>
+  <si>
+    <t>PO2549SFSD010001-2-1</t>
+  </si>
+  <si>
+    <t>PO2549SFSD010001-3-1</t>
+  </si>
+  <si>
+    <t>PO2549SFSD010001-4-1</t>
+  </si>
+  <si>
+    <t>PO2549SFSD010001-5-1</t>
+  </si>
+  <si>
+    <t>PO2549SFSD010001-6-1</t>
+  </si>
+  <si>
+    <t>PO2549SFSD010001-7-1</t>
+  </si>
+  <si>
+    <t>PO2528SFSD010001-4-4</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-17-4</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-29-2</t>
+  </si>
+  <si>
+    <t>PO2536SFSD010001-4-5</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-1-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-2-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-3-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-4-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-5-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-6-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-7-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-8-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-9-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-10-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-11-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-12-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-13-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-14-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-15-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-16-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-17-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-18-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-19-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-20-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-21-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-22-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-23-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-24-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-25-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-26-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-27-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-28-1</t>
+  </si>
+  <si>
+    <t>PO2550SFSD010003-29-1</t>
+  </si>
+  <si>
+    <t>PO2534SFSD010001-12-2</t>
+  </si>
+  <si>
+    <t>PO2538SFSD010001-14-2</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-12-3</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-12-4</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-12-5</t>
+  </si>
+  <si>
+    <t>PO2543SFSD010001-12-6</t>
+  </si>
+  <si>
+    <t>PO2546SFSD010003-1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,35 +734,13 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <sz val="14"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFF54A45"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F2329"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF1F2329"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -347,7 +888,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,7 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,149 +1235,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1356,647 +1899,3420 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.0769230769231" customWidth="1"/>
-    <col min="2" max="2" width="6.76923076923077" customWidth="1"/>
-    <col min="3" max="4" width="13.7692307692308" customWidth="1"/>
+    <col min="1" max="1" width="26.5961538461538" customWidth="1"/>
+    <col min="2" max="2" width="16.0288461538462" customWidth="1"/>
+    <col min="3" max="3" width="13.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="24.1538461538462" customWidth="1"/>
     <col min="5" max="5" width="29.7692307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="62" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
+        <v>560</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45973</v>
+      </c>
+      <c r="E2" s="3">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45973</v>
+      </c>
+      <c r="E3" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>520</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E4" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45996</v>
+      </c>
+      <c r="E5" s="3">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>720</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E6" s="3">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1720</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E7" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1880</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E8" s="3">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E9" s="3">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
         <v>1000</v>
       </c>
-      <c r="C2" s="5">
-        <v>45920</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>YEAR(C2)&amp;WEEKNUM(C2)</f>
-        <v>202538</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E10" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1080</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E11" s="3">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E12" s="3">
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>640</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E13" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>320</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E15" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>600</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E16" s="3">
+        <v>46017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1880</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E17" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>46038</v>
+      </c>
+      <c r="E18" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3560</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E19" s="3">
+        <v>46002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E20" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1440</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E21" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2360</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E22" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1320</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3">
+        <v>46001</v>
+      </c>
+      <c r="E23" s="3">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>800</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>46283</v>
+      </c>
+      <c r="E24" s="3">
+        <v>46279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2520</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <v>46010</v>
+      </c>
+      <c r="E25" s="3">
+        <v>46017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2520</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E26" s="3">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E27" s="3">
+        <v>46017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E28" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2">
+        <v>760</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3">
+        <v>46028</v>
+      </c>
+      <c r="E29" s="3">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2">
+        <v>160</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E30" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2">
+        <v>160</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3">
+        <v>46063</v>
+      </c>
+      <c r="E31" s="3">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E32" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3">
+        <v>46063</v>
+      </c>
+      <c r="E33" s="3">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1080</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3">
+        <v>46283</v>
+      </c>
+      <c r="E34" s="3">
+        <v>46279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2480</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E35" s="3">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2">
+        <v>280</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2520</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3">
+        <v>46050</v>
+      </c>
+      <c r="E37" s="3">
+        <v>46098</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E38" s="3">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2">
+        <v>720</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3">
+        <v>46045</v>
+      </c>
+      <c r="E39" s="3">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2">
+        <v>880</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E40" s="3">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2280</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E41" s="3">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2">
+        <v>920</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="D42" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E42" s="3">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2">
+        <v>200</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3">
+        <v>45996</v>
+      </c>
+      <c r="E43" s="3">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3440</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E44" s="3">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1360</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E45" s="3">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="2">
+        <v>600</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3280</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E47" s="3">
+        <v>46013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2">
+        <v>600</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="3">
+        <v>46063</v>
+      </c>
+      <c r="E48" s="3">
+        <v>46094</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2">
+        <v>800</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E49" s="3">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2">
+        <v>720</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2640</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E51" s="3">
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2880</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E52" s="3">
+        <v>46088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4360</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E53" s="3">
+        <v>46086</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1800</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E54" s="3">
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1640</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E55" s="3">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="2">
+        <v>760</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E56" s="3">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="2">
+        <v>760</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="3">
+        <v>46042</v>
+      </c>
+      <c r="E57" s="3">
+        <v>46105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="2">
+        <v>600</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E58" s="3">
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="2">
+        <v>720</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E59" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="2">
+        <v>200</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3">
+        <v>46003</v>
+      </c>
+      <c r="E60" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1160</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E61" s="3">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="2">
+        <v>240</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="3">
+        <v>45980</v>
+      </c>
+      <c r="E62" s="3">
+        <v>46105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="2">
+        <v>240</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E63" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="2">
+        <v>480</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E64" s="3">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="2">
+        <v>160</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E65" s="3">
+        <v>46108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="2">
+        <v>480</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1520</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E67" s="3">
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="2">
+        <v>400</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="3">
+        <v>45973</v>
+      </c>
+      <c r="E68" s="3">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E69" s="3">
+        <v>46109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1360</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="2">
+        <v>27640</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E71" s="3">
+        <v>46140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2280</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E72" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="2">
+        <v>480</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E73" s="3">
+        <v>46119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1520</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E74" s="3">
+        <v>46114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="2">
+        <v>680</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E75" s="3">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2">
+        <v>200</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E76" s="3">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E77" s="3">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2240</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E78" s="3">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="2">
+        <v>160</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E79" s="3">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1640</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E80" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E81" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1080</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E82" s="3">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="2">
+        <v>960</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E83" s="3">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="2">
+        <v>680</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45987</v>
+      </c>
+      <c r="E84" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1280</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E85" s="3">
+        <v>46158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="2">
+        <v>640</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="3">
+        <v>45987</v>
+      </c>
+      <c r="E86" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="2">
+        <v>600</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E87" s="3">
+        <v>46108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1840</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="3">
+        <v>46002</v>
+      </c>
+      <c r="E88" s="3">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E89" s="3">
+        <v>46163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4428</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E90" s="3">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="2">
+        <v>320</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="3">
+        <v>45996</v>
+      </c>
+      <c r="E91" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="2">
+        <v>640</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E92" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="2">
+        <v>840</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E93" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="2">
         <v>880</v>
       </c>
-      <c r="C3" s="5">
-        <v>45972</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D35" si="0">YEAR(C3)&amp;WEEKNUM(C3)</f>
-        <v>202546</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E94" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E95" s="3">
+        <v>46177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E96" s="3">
+        <v>46176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E97" s="3">
+        <v>46176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E98" s="3">
+        <v>46175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E99" s="3">
+        <v>46175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2480</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E100" s="3">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="2">
+        <v>680</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E101" s="3">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2320</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E102" s="3">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2640</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E103" s="3">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="2">
+        <v>840</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E104" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1760</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E105" s="3">
+        <v>46172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1960</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E106" s="3">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1320</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E107" s="3">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="2">
+        <v>4760</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E108" s="3">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E109" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" s="2">
+        <v>600</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E110" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B111" s="2">
+        <v>760</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E111" s="3">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1240</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E112" s="3">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" s="2">
+        <v>880</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E113" s="3">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2720</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E114" s="3">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1040</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E115" s="3">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2440</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E116" s="3">
+        <v>46168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="2">
+        <v>680</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E117" s="3">
+        <v>46168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" s="2">
+        <v>920</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E118" s="3">
+        <v>46168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1520</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="3">
+        <v>45996</v>
+      </c>
+      <c r="E119" s="3">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E120" s="3">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D121" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E121" s="3">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E122" s="3">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E123" s="3">
+        <v>46126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1880</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E124" s="3">
+        <v>45998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2">
+        <v>3600</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E125" s="3">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="2">
+        <v>144</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D126" s="3">
+        <v>46009</v>
+      </c>
+      <c r="E126" s="3">
+        <v>46167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="2">
+        <v>520</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D127" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="2">
+        <v>880</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="3">
+        <v>46031</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D131" s="3">
+        <v>46037</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D132" s="3">
+        <v>46038</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133" s="3">
+        <v>46053</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134" s="3">
+        <v>46111</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D135" s="3">
+        <v>46053</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" s="3">
+        <v>46111</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D137" s="3">
+        <v>46111</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="2">
         <v>960</v>
       </c>
-      <c r="C4" s="5">
-        <v>45973</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="C138" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D138" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1520</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="2">
         <v>1600</v>
       </c>
-      <c r="C5" s="5">
-        <v>45973</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C140" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D140" s="3">
+        <v>46031</v>
+      </c>
+      <c r="E140" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2">
+        <v>760</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" s="3">
+        <v>46031</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="2">
+        <v>680</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D142" s="3">
+        <v>46038</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="2">
+        <v>600</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="D143" s="3">
+        <v>46029</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" s="2">
+        <v>15680</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" s="3">
+        <v>46038</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" s="2">
+        <v>1480</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D145" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="2">
+        <v>960</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D146" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E146" s="3">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="2">
+        <v>920</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="2">
+        <v>800</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="3">
+        <v>46073</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1960</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1480</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" s="2">
+        <v>600</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E152" s="3">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="2">
+        <v>1680</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E153" s="3">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="2">
+        <v>920</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E154" s="3">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" s="2">
+        <v>440</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E155" s="3">
+        <v>45998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="2">
+        <v>120</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="3">
+        <v>46013</v>
+      </c>
+      <c r="E156" s="3">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" s="2">
+        <v>640</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D157" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E157" s="3">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B158" s="2">
+        <v>160</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E158" s="3">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B159" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D159" s="3">
+        <v>45999</v>
+      </c>
+      <c r="E159" s="3">
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D160" s="3">
+        <v>45999</v>
+      </c>
+      <c r="E160" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1080</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D161" s="3">
+        <v>46051</v>
+      </c>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="2">
+        <v>880</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D162" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2760</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D163" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" s="2">
         <v>1160</v>
       </c>
-      <c r="C6" s="5">
-        <v>45961</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202544</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1080</v>
-      </c>
-      <c r="C7" s="5">
-        <v>45972</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5">
-        <v>45961</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202544</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="C164" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" s="2">
+        <v>720</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D165" s="3">
+        <v>46051</v>
+      </c>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" s="2">
+        <v>920</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D166" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1360</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B168" s="2">
+        <v>80</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D168" s="3">
+        <v>45996</v>
+      </c>
+      <c r="E168" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B169" s="2">
+        <v>120</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D169" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E169" s="3">
+        <v>46118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" s="2">
+        <v>680</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D170" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E170" s="3">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B171" s="2">
+        <v>400</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E171" s="3">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1520</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D172" s="3">
+        <v>46034</v>
+      </c>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1520</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D173" s="3">
+        <v>46055</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B174" s="2">
+        <v>960</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D174" s="3">
+        <v>46051</v>
+      </c>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1360</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D175" s="3">
+        <v>46051</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B176" s="2">
+        <v>3408</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D176" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B177" s="2">
+        <v>600</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D177" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B178" s="2">
+        <v>80</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B179" s="2">
+        <v>320</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" s="2">
+        <v>240</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B181" s="2">
+        <v>280</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="3">
+        <v>46032</v>
+      </c>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1120</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D182" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B183" s="2">
+        <v>720</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1520</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D184" s="3">
+        <v>46045</v>
+      </c>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1040</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D185" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D186" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2720</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D187" s="3">
+        <v>46059</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1440</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188" s="3">
+        <v>46059</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1640</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D190" s="3">
+        <v>46059</v>
+      </c>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1240</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B192" s="2">
+        <v>840</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D192" s="3">
+        <v>46059</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1160</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D193" s="3">
+        <v>46059</v>
+      </c>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B194" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D194" s="3">
+        <v>46056</v>
+      </c>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195" s="2">
         <v>760</v>
       </c>
-      <c r="C9" s="5">
-        <v>45923</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202539</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>600</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45923</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202539</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>800</v>
-      </c>
-      <c r="C11" s="5">
-        <v>45925</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202539</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>800</v>
-      </c>
-      <c r="C12" s="5">
-        <v>45917</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202538</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4">
-        <v>640</v>
-      </c>
-      <c r="C13" s="5">
-        <v>45961</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202544</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>680</v>
-      </c>
-      <c r="C14" s="5">
-        <v>45973</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4">
-        <v>920</v>
-      </c>
-      <c r="C15" s="5">
-        <v>45968</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202545</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="C195" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D195" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1480</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D196" s="3">
+        <v>46094</v>
+      </c>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="3">
+        <v>46059</v>
+      </c>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" s="3">
+        <v>46063</v>
+      </c>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B199" s="2">
+        <v>880</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="3">
+        <v>46091</v>
+      </c>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1720</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D200" s="3">
+        <v>46052</v>
+      </c>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B201" s="2">
+        <v>200</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4">
-        <v>760</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45961</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202544</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>680</v>
-      </c>
-      <c r="C17" s="5">
-        <v>45980</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>920</v>
-      </c>
-      <c r="C18" s="5">
-        <v>45973</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4">
-        <v>680</v>
-      </c>
-      <c r="C19" s="5">
-        <v>45980</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
-        <v>680</v>
-      </c>
-      <c r="C20" s="5">
-        <v>45980</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4">
-        <v>680</v>
-      </c>
-      <c r="C21" s="5">
-        <v>45980</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4">
-        <v>680</v>
-      </c>
-      <c r="C22" s="5">
-        <v>45980</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="D201" s="3">
+        <v>46050</v>
+      </c>
+      <c r="E201" s="3">
+        <v>46098</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B202" s="2">
+        <v>120</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D202" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E202" s="3">
+        <v>46088</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B203" s="2">
         <v>720</v>
       </c>
-      <c r="C23" s="5">
-        <v>45973</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4">
-        <v>760</v>
-      </c>
-      <c r="C24" s="5">
-        <v>45973</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4">
-        <v>600</v>
-      </c>
-      <c r="C25" s="5">
-        <v>45980</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2400</v>
-      </c>
-      <c r="C26" s="5">
-        <v>46013</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202552</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1520</v>
-      </c>
-      <c r="C27" s="5">
-        <v>46013</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202552</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2240</v>
-      </c>
-      <c r="C28" s="5">
-        <v>46013</v>
-      </c>
-      <c r="D28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202552</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4">
-        <v>680</v>
-      </c>
-      <c r="C29" s="5">
-        <v>45987</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202548</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1280</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="C203" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D203" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E203" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D204" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E204" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2520</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D205" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E205" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2480</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D206" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E206" s="3">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B207" s="2">
+        <v>4428</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" s="3">
         <v>46009</v>
       </c>
-      <c r="D30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202551</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="4">
-        <v>640</v>
-      </c>
-      <c r="C31" s="5">
-        <v>45987</v>
-      </c>
-      <c r="D31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202548</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="4">
-        <v>2320</v>
-      </c>
-      <c r="C32" s="5">
-        <v>46006</v>
-      </c>
-      <c r="D32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202551</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1320</v>
-      </c>
-      <c r="C33" s="5">
-        <v>46006</v>
-      </c>
-      <c r="D33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202551</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="4">
-        <v>920</v>
-      </c>
-      <c r="C34" s="5">
-        <v>46006</v>
-      </c>
-      <c r="D34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202551</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1520</v>
-      </c>
-      <c r="C35" s="5">
-        <v>45996</v>
-      </c>
-      <c r="D35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>202549</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>39</v>
+      <c r="E207" s="3">
+        <v>46021</v>
       </c>
     </row>
   </sheetData>
